--- a/medicine/Psychotrope/Psychotrope_au_cinéma_et_à_la_télévision/Psychotrope_au_cinéma_et_à_la_télévision.xlsx
+++ b/medicine/Psychotrope/Psychotrope_au_cinéma_et_à_la_télévision/Psychotrope_au_cinéma_et_à_la_télévision.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les psychotropes sont présents aussi bien sur le petit que le grand écran dés le début du cinéma dans des films et des séries télévisées dramatiques, comiques, historique ou fictifs[1]. De manière générale, le 7e art a d'abord dépeint la consommation de drogue négativement auprès du grand public[2] puis à partir des années 70, les réalisateurs de films souhaitent montrer une facette moins moralisatrice voire contre culturelle[3]. Les œuvres télévisuelles abordent souvent des trafics de drogues réels ou inventés[4]. La consommation de substances opiacés étant illégale, les acteurs ont recours à des accessoires pour dépeindre ces derniers tels de la fécule de maïs ou de l'inositol[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les psychotropes sont présents aussi bien sur le petit que le grand écran dés le début du cinéma dans des films et des séries télévisées dramatiques, comiques, historique ou fictifs. De manière générale, le 7e art a d'abord dépeint la consommation de drogue négativement auprès du grand public puis à partir des années 70, les réalisateurs de films souhaitent montrer une facette moins moralisatrice voire contre culturelle. Les œuvres télévisuelles abordent souvent des trafics de drogues réels ou inventés. La consommation de substances opiacés étant illégale, les acteurs ont recours à des accessoires pour dépeindre ces derniers tels de la fécule de maïs ou de l'inositol,.
 Les films historiques ayant pour cadre la Guerre d'Opium ne sont pas forcément en lien avec la consommation de cette drogue mais plutôt son trafic a contrario du personnage de Sherlock Holmes dont plusieurs films le dépeignent, comme dans les livres, opiomane au début de sa rencontre avec le Docteur Watson.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,48 @@
           <t>Liste de films</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les films listés ici sont ceux dont le thème principal est la consommation de psychotropes ou le trafic de drogue.
-Cannabis / marijuana
-1933 : Night of Terror de Benjamin Stoloff
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les films listés ici sont ceux dont le thème principal est la consommation de psychotropes ou le trafic de drogue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste de films</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cannabis / marijuana</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1933 : Night of Terror de Benjamin Stoloff
 1934 : Rythmes d'amour de Mitchell Leisen
 1935 : La Comtesse Hachisch
 1936 : Marihuana de Dwain Esper
@@ -549,16 +598,84 @@
 Escroc(s) en herbe de Tim Blake Nelson
 Sex Pot d'Eric Forsberg
 2010 : Twelve de Joel Schumacher
-2018 : Les Potes d'Olivia Milch
-Crack
-1994 : Sweet nothing de Gary Winick
+2018 : Les Potes d'Olivia Milch</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste de films</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Crack</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1994 : Sweet nothing de Gary Winick
 2001 : MacArthur Park de Billy Wirth
 2009 : Life Is Hot in Cracktown de Buddy Giovinazzo
 2013 : White Crack Bastard de James Cullen Bressack
 2015 : NWA: Straight Outta Compton de F. Gary Gray
-2018 : Undercover : Une histoire vraie d'Yann Demange
-Cocaïne
-1948 : Cocaïne de Giorgio Bianch
+2018 : Undercover : Une histoire vraie d'Yann Demange</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste de films</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1948 : Cocaïne de Giorgio Bianch
 1950 : Poison blanc de William A. Seiter.
 1955 : L'Homme au bras d'or de Otto Preminger
 1963 : Interpol contre stupéfiants de Rudolf Zehetgruber
@@ -571,9 +688,43 @@
 2016 : Udta Punjab d'Abhishek Chaubey
 2017 : La Reine des cartels de Guillermo Navarro
 2019 : La Bataille du rail de Jean-Charles Paugam
-2023 : Crazy Bear d'Elizabeth Banks
-Héroïne
-1962 : Connection de Shirley Clarke
+2023 : Crazy Bear d'Elizabeth Banks</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste de films</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Héroïne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1962 : Connection de Shirley Clarke
 1970 : La Horse de Pierre Granier-Deferre
 1971 :
 French Connection de William Friedkin
@@ -603,22 +754,158 @@
 2019 :
 Douleur et Gloire de Pedro Almodóvar
 The Souvenir de Joanna Hogg
-2023 : The Son de Florian Zeller
-Méthamphétamine
-2004 : Layer Cake de Matthew Vaughn
+2023 : The Son de Florian Zeller</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste de films</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Méthamphétamine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2004 : Layer Cake de Matthew Vaughn
 2017 : Une prière avant l'aube de Jean-Stéphane Sauvaire
-2018 : My Beautiful Boy de Felix Van Groeningen
-Morphine
-1962 : Long Voyage vers la nuit de Sidney Lumet
+2018 : My Beautiful Boy de Felix Van Groeningen</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste de films</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Morphine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1962 : Long Voyage vers la nuit de Sidney Lumet
 1988 : Igla de Rachid Nougmanov
 2002 : Après la vie de Lucas Belvaux
-2008 : Morphine d'Alekseï Balabanov
-Nouvelle drogue de synthèse
-1988 : L'Emprise des ténèbres de Wes Craven
+2008 : Morphine d'Alekseï Balabanov</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste de films</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelle drogue de synthèse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1988 : L'Emprise des ténèbres de Wes Craven
 2001 : Le 51e État de Ronny Yu
-2019 : Synchronic de Justin Benson
-LSD
-1967 :
+2019 : Synchronic de Justin Benson</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste de films</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LSD</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1967 :
 Riot on Sunset Strip d'Arthur Dreifuss
 Rue des hippies d'Arthur Dreifuss
 The Trip de Roger Corman
@@ -631,15 +918,83 @@
 1986 : Sid et Nancy d'Alex Cox
 2003 : Thirteen de Catherine Hardwicke
 2014 : No No: A Dockumentary  de Jeff Radice
-2018 : Climax de Gaspar Noé
-Opioïdes
-2017 : Heroin(e) d'Elaine McMillion Sheldon
+2018 : Climax de Gaspar Noé</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste de films</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Opioïdes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2017 : Heroin(e) d'Elaine McMillion Sheldon
 2021 :
 Cherry de Joe et Anthony Russo
 Le crime du siècle d'Alex Gibney
-2022 : Toute la beauté et le sang versé de Laura Poitras
-Opium
-1894 : Chinese Opium Den de Thomas Edison
+2022 : Toute la beauté et le sang versé de Laura Poitras</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste de films</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Opium</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1894 : Chinese Opium Den de Thomas Edison
 1901 : Fumerie d'opium de Gabriel Veyre
 1902 : Un horrible cauchemar de Ferdinand Zecca
 1905 : The Visions of an Opium Smoker de Robert W. Paul
@@ -661,9 +1016,43 @@
 1996 : Temptress Moon de Chen Kaige
 2001 : From Hell d'Albert et Allen Hughes
 2011 : L'Apollonide : Souvenirs de la maison close de Bertrand Bonello
-2013 : Opium d'Arielle Dombasle
-Subsistance hallucinogène
-1980 : Au-delà du réel de Ken Russell
+2013 : Opium d'Arielle Dombasle</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste de films</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Subsistance hallucinogène</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1980 : Au-delà du réel de Ken Russell
 1990 : L'échelle de Jacob d'Adrian Lyne
 1991 : Le Festin nu de David Cronenberg
 2002 : Das weisse Rauschen de Hans Weingartner
@@ -674,9 +1063,43 @@
 2006 : A Scanner Darkly de Richard Linklater
 2007 : Shrooms de Paddy Breathnach
 2015 : Final Girl : La Dernière Proie de Tyler Shields
-2018 : Climax de Gaspar Noé
-Trafic de drogue
-1948 : To the Ends of the Earth de Robert Stevenson
+2018 : Climax de Gaspar Noé</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste de films</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Trafic de drogue</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1948 : To the Ends of the Earth de Robert Stevenson
 1949 : La Brigade des stupéfiants de Laslo Benedek
 1955 : Razzia sur la chnouf d'Henri Decoin
 1961 : En pleine bagarre de Giorgio Bianchi
@@ -753,9 +1176,43 @@
 Centauro de Daniel Calparsoro
 Les rois de la coke de Julian Sher
 Overdose de Olivier Marchal
-Vengeance de B.J. Novak
-Autres
-1923 : The Drug Traffic d'Irving Cummings
+Vengeance de B.J. Novak</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste de films</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1923 : The Drug Traffic d'Irving Cummings
 1956 : Derrière le miroir de Nicholas Ray
 1958 : Le Désordre et la Nuit de Gilles Grangier
 1966 : Chappaqua de Conrad Rooks
@@ -824,54 +1281,295 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Liste de séries télévisées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les sériés télévisées listés ici sont celles dont le thème principal est la consommation de psychotropes ou le trafic de drogue.
-Cannabis
-2005 : Weeds de Jenji Kohan
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sériés télévisées listés ici sont celles dont le thème principal est la consommation de psychotropes ou le trafic de drogue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste de séries télévisées</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2005 : Weeds de Jenji Kohan
 2012 : High Maintenance de Ben Sinclair et Katja Blichfeld
 2017 : Holly Weed de Daive Cohen, Lionel Dutemple, Benjamin Morgaine, Arthur Benzaquen
 2019 : Family Business d'Igor Gotesman
-2021 : Caïd d'Ange Basterga et Nicolas Lopez
-Crack
-2017 : Disjointed de David Javerbaum et Chuck Lorre
-2019 : Wu-Tang: An American Saga de RZA et Alex Tse
-Diméthyltryptamine
-2015 : Limitless de Craig Sweeny
-Ecstasy
-2019 : How to Sell Drugs Online (Fast) de Philipp Käßbohrer et Matthias Murmann
-Méthamphétamine
-2008 : Breaking Bad de Vince Gilligan
-Opioïde
-2021 : Dopesick de Danny Strong
+2021 : Caïd d'Ange Basterga et Nicolas Lopez</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste de séries télévisées</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Crack</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2017 : Disjointed de David Javerbaum et Chuck Lorre
+2019 : Wu-Tang: An American Saga de RZA et Alex Tse</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste de séries télévisées</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Diméthyltryptamine</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2015 : Limitless de Craig Sweeny</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste de séries télévisées</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Ecstasy</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2019 : How to Sell Drugs Online (Fast) de Philipp Käßbohrer et Matthias Murmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste de séries télévisées</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Méthamphétamine</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2008 : Breaking Bad de Vince Gilligan</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste de séries télévisées</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Opioïde</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2021 : Dopesick de Danny Strong
 2023 : Painkiller (série télévisée)
-2023 : Malpractice de Sophie Reynolds
-Trafic de drogue
-2002 : Sur écoute de David Simon et Ed Burns
+2023 : Malpractice de Sophie Reynolds</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste de séries télévisées</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Trafic de drogue</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2002 : Sur écoute de David Simon et Ed Burns
 2003 : Le Cartel de David Mills
 2009 : El Capo de Riccardo Gabrielli et Lilo Vilaplana
 2011 :
@@ -891,9 +1589,43 @@
 2021 :
 DOM de Breno Silveira
 Power Book III: Raising Kanan de Courtney A. Kemp
-2023 : Air Cocaïne de Stéphane Rybojad et Thomas Dandois
-Autres
-2000 : The Corner de David Simon, David Mills et Robert F. Colesberry
+2023 : Air Cocaïne de Stéphane Rybojad et Thomas Dandois</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste de séries télévisées</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2000 : The Corner de David Simon, David Mills et Robert F. Colesberry
 2009 : Nurse Jackie de Linda Wallem, Evan Dunsky et Liz Brixius
 2014 : The Knick de Jack Amiel, Michael Begler et Steven Soderbergh
 2019 : Euphoria de Sam Levinson
@@ -904,31 +1636,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Psychotrope_au_cinéma_et_à_la_télévision</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychotrope_au_cin%C3%A9ma_et_%C3%A0_la_t%C3%A9l%C3%A9vision</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Documentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>2014 : Drogues et cinéma épisode de Blow up production Arte.</t>
         </is>
